--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan1.Desale\Downloads\AllPythonProjects\flet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B820A21-D8F8-4511-83E3-528931326EF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DBA426-A9BC-40E5-BA70-2459E8939392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{687DB950-46AF-4C33-8871-1CB46FBF98E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEDNESDAY" sheetId="1" r:id="rId1"/>
+    <sheet name="MONDAY" sheetId="9" r:id="rId1"/>
+    <sheet name="TUESDAY" sheetId="1" r:id="rId2"/>
+    <sheet name="WEDNESDAY" sheetId="6" r:id="rId3"/>
+    <sheet name="THURSDAY" sheetId="7" r:id="rId4"/>
+    <sheet name="FRIDAY" sheetId="8" r:id="rId5"/>
+    <sheet name="SATURDAY" sheetId="3" r:id="rId6"/>
+    <sheet name="SUNDAY" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="18">
   <si>
     <t>NO</t>
   </si>
@@ -562,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9120F76A-A6F5-43AB-B125-9AD64D77A122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372C7BD-920E-4E91-B651-1C971E7AC906}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,4 +943,2272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9120F76A-A6F5-43AB-B125-9AD64D77A122}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3803152-2C9C-4053-AAAF-896D993E4D98}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497DBEF6-67A2-4B93-B571-04EFE2987F55}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA91D589-8DAC-4791-892D-09ACEC449A01}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8152BC57-A2CD-46F6-859B-87CC5C16463F}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110B6FA4-D15B-4F8C-BE47-1D10306768A1}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.0208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan1.Desale\Downloads\AllPythonProjects\flet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DBA426-A9BC-40E5-BA70-2459E8939392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F291098-13FB-484E-99B5-FBED3CACEF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{687DB950-46AF-4C33-8871-1CB46FBF98E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3" xr2:uid="{687DB950-46AF-4C33-8871-1CB46FBF98E7}"/>
   </bookViews>
   <sheets>
     <sheet name="MONDAY" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="SUNDAY" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="18">
   <si>
     <t>NO</t>
   </si>
@@ -571,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372C7BD-920E-4E91-B651-1C971E7AC906}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3">
-        <v>0.51666666666666672</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -1705,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497DBEF6-67A2-4B93-B571-04EFE2987F55}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1978,7 @@
       <c r="E13" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="3">
         <v>1.0208333333333333</v>
       </c>
     </row>
@@ -1989,13 +1990,13 @@
         <v>15</v>
       </c>
       <c r="C14" s="3">
-        <v>0.51666666666666672</v>
+        <v>1.0208333333333333</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>16</v>
+      <c r="E14" s="3">
+        <v>1.0208333333333333</v>
       </c>
       <c r="F14" s="3">
         <v>0.25</v>

--- a/schedules.xlsx
+++ b/schedules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chetan1.Desale\Downloads\AllPythonProjects\flet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F291098-13FB-484E-99B5-FBED3CACEF5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5642A068-9218-409C-9AB1-86B110470582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3" xr2:uid="{687DB950-46AF-4C33-8871-1CB46FBF98E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="5" xr2:uid="{687DB950-46AF-4C33-8871-1CB46FBF98E7}"/>
   </bookViews>
   <sheets>
     <sheet name="MONDAY" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="SUNDAY" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -199,11 +198,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +262,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497DBEF6-67A2-4B93-B571-04EFE2987F55}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1732,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1801,7 +1812,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1820,8 +1831,9 @@
       <c r="F5" s="3">
         <v>0.36458333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1840,9 +1852,10 @@
       <c r="F6" s="3">
         <v>0.38194444444444442</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="18"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1862,7 +1875,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1882,7 +1895,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1902,7 +1915,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1922,7 +1935,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>0.89583333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1962,7 +1975,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>1.0208333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2002,7 +2015,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -2010,7 +2023,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -2462,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8152BC57-A2CD-46F6-859B-87CC5C16463F}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3">
-        <v>0.51666666666666672</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
